--- a/team_specific_matrix/Alcorn_B.xlsx
+++ b/team_specific_matrix/Alcorn_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.15625</v>
+        <v>0.1655629139072848</v>
       </c>
       <c r="C2">
-        <v>0.6145833333333334</v>
+        <v>0.5927152317880795</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01041666666666667</v>
+        <v>0.02317880794701987</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1145833333333333</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1041666666666667</v>
+        <v>0.08609271523178808</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.008403361344537815</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="C3">
-        <v>0.008403361344537815</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03361344537815126</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2352941176470588</v>
+        <v>0.2307692307692308</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02631578947368421</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8157894736842105</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1578947368421053</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07407407407407407</v>
+        <v>0.07906976744186046</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006172839506172839</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05555555555555555</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.228395061728395</v>
+        <v>0.2279069767441861</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0308641975308642</v>
+        <v>0.03720930232558139</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.154320987654321</v>
+        <v>0.1674418604651163</v>
       </c>
       <c r="R6">
-        <v>0.09259259259259259</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="S6">
-        <v>0.3580246913580247</v>
+        <v>0.3534883720930233</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1313868613138686</v>
+        <v>0.1188118811881188</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0364963503649635</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1605839416058394</v>
+        <v>0.1633663366336634</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0364963503649635</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1751824817518248</v>
+        <v>0.1831683168316832</v>
       </c>
       <c r="R7">
-        <v>0.072992700729927</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="S7">
-        <v>0.3868613138686132</v>
+        <v>0.3762376237623762</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07736389684813753</v>
+        <v>0.08686440677966102</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02005730659025788</v>
+        <v>0.01483050847457627</v>
       </c>
       <c r="E8">
-        <v>0.002865329512893983</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="F8">
-        <v>0.0830945558739255</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1146131805157593</v>
+        <v>0.1144067796610169</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01146131805157593</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.160458452722063</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="R8">
-        <v>0.1232091690544413</v>
+        <v>0.125</v>
       </c>
       <c r="S8">
-        <v>0.4068767908309456</v>
+        <v>0.4088983050847458</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.02150537634408602</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04301075268817205</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07526881720430108</v>
+        <v>0.06504065040650407</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09677419354838709</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02150537634408602</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1397849462365591</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="R9">
-        <v>0.1935483870967742</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="S9">
-        <v>0.4086021505376344</v>
+        <v>0.3821138211382114</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1138613861386139</v>
+        <v>0.1251101321585903</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03465346534653466</v>
+        <v>0.03259911894273128</v>
       </c>
       <c r="E10">
-        <v>0.001237623762376238</v>
+        <v>0.000881057268722467</v>
       </c>
       <c r="F10">
-        <v>0.05816831683168317</v>
+        <v>0.06607929515418502</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1225247524752475</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02475247524752475</v>
+        <v>0.02378854625550661</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1683168316831683</v>
+        <v>0.1726872246696035</v>
       </c>
       <c r="R10">
-        <v>0.1175742574257426</v>
+        <v>0.1145374449339207</v>
       </c>
       <c r="S10">
-        <v>0.3589108910891089</v>
+        <v>0.345374449339207</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1479820627802691</v>
+        <v>0.1656626506024096</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08520179372197309</v>
+        <v>0.08132530120481928</v>
       </c>
       <c r="K11">
-        <v>0.2017937219730942</v>
+        <v>0.2228915662650602</v>
       </c>
       <c r="L11">
-        <v>0.5426008968609866</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02242152466367713</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7438016528925619</v>
+        <v>0.7544910179640718</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2148760330578512</v>
+        <v>0.2095808383233533</v>
       </c>
       <c r="K12">
-        <v>0.01652892561983471</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="L12">
-        <v>0.008264462809917356</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01652892561983471</v>
+        <v>0.01197604790419162</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.72</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08</v>
+        <v>0.1282051282051282</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0130718954248366</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1895424836601307</v>
+        <v>0.1980676328502415</v>
       </c>
       <c r="I15">
-        <v>0.05228758169934641</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="J15">
-        <v>0.326797385620915</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.08496732026143791</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0196078431372549</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="N15">
-        <v>0.006535947712418301</v>
+        <v>0.004830917874396135</v>
       </c>
       <c r="O15">
-        <v>0.0718954248366013</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2352941176470588</v>
+        <v>0.2318840579710145</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01538461538461539</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2076923076923077</v>
+        <v>0.2010309278350516</v>
       </c>
       <c r="I16">
-        <v>0.04615384615384616</v>
+        <v>0.05154639175257732</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.3814432989690721</v>
       </c>
       <c r="K16">
-        <v>0.08461538461538462</v>
+        <v>0.08247422680412371</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03076923076923077</v>
+        <v>0.02577319587628866</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.1</v>
+        <v>0.07731958762886598</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1153846153846154</v>
+        <v>0.1494845360824742</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03501945525291829</v>
+        <v>0.02493074792243767</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2217898832684825</v>
+        <v>0.2022160664819945</v>
       </c>
       <c r="I17">
-        <v>0.05447470817120623</v>
+        <v>0.0443213296398892</v>
       </c>
       <c r="J17">
-        <v>0.3813229571984436</v>
+        <v>0.4016620498614958</v>
       </c>
       <c r="K17">
-        <v>0.1284046692607004</v>
+        <v>0.1412742382271468</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01556420233463035</v>
+        <v>0.01662049861495845</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04280155642023346</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1206225680933852</v>
+        <v>0.1163434903047091</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0335195530726257</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2122905027932961</v>
+        <v>0.1887550200803213</v>
       </c>
       <c r="I18">
-        <v>0.111731843575419</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="J18">
-        <v>0.3910614525139665</v>
+        <v>0.429718875502008</v>
       </c>
       <c r="K18">
-        <v>0.0893854748603352</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="N18">
-        <v>0.00558659217877095</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="O18">
-        <v>0.0670391061452514</v>
+        <v>0.05622489959839357</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0893854748603352</v>
+        <v>0.1004016064257028</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.03091557669441141</v>
+        <v>0.02672413793103448</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2366230677764566</v>
+        <v>0.2353448275862069</v>
       </c>
       <c r="I19">
-        <v>0.05469678953626635</v>
+        <v>0.05517241379310345</v>
       </c>
       <c r="J19">
-        <v>0.3436385255648038</v>
+        <v>0.3379310344827586</v>
       </c>
       <c r="K19">
-        <v>0.1117717003567182</v>
+        <v>0.1172413793103448</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0178359096313912</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06420927467300833</v>
+        <v>0.06637931034482758</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1403091557669441</v>
+        <v>0.1405172413793103</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Alcorn_B.xlsx
+++ b/team_specific_matrix/Alcorn_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1655629139072848</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="C2">
-        <v>0.5927152317880795</v>
+        <v>0.5815384615384616</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02317880794701987</v>
+        <v>0.02153846153846154</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1324503311258278</v>
+        <v>0.1353846153846154</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08609271523178808</v>
+        <v>0.09230769230769231</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005494505494505495</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="C3">
-        <v>0.01098901098901099</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02747252747252747</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7252747252747253</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2307692307692308</v>
+        <v>0.2291666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04166666666666666</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7291666666666666</v>
+        <v>0.7115384615384616</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2291666666666667</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07906976744186046</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004651162790697674</v>
+        <v>0.01239669421487603</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04651162790697674</v>
+        <v>0.06611570247933884</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2279069767441861</v>
+        <v>0.231404958677686</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03720930232558139</v>
+        <v>0.04132231404958678</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1674418604651163</v>
+        <v>0.1611570247933884</v>
       </c>
       <c r="R6">
-        <v>0.08372093023255814</v>
+        <v>0.07851239669421488</v>
       </c>
       <c r="S6">
-        <v>0.3534883720930233</v>
+        <v>0.3347107438016529</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1188118811881188</v>
+        <v>0.1152073732718894</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03465346534653466</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1633663366336634</v>
+        <v>0.152073732718894</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03465346534653466</v>
+        <v>0.04608294930875576</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1831683168316832</v>
+        <v>0.184331797235023</v>
       </c>
       <c r="R7">
-        <v>0.0891089108910891</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="S7">
-        <v>0.3762376237623762</v>
+        <v>0.3824884792626728</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08686440677966102</v>
+        <v>0.09430255402750491</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01483050847457627</v>
+        <v>0.0137524557956778</v>
       </c>
       <c r="E8">
-        <v>0.00423728813559322</v>
+        <v>0.003929273084479371</v>
       </c>
       <c r="F8">
-        <v>0.07627118644067797</v>
+        <v>0.07269155206286837</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1144067796610169</v>
+        <v>0.1139489194499018</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.008474576271186441</v>
+        <v>0.009823182711198428</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1610169491525424</v>
+        <v>0.1611001964636542</v>
       </c>
       <c r="R8">
-        <v>0.125</v>
+        <v>0.1296660117878193</v>
       </c>
       <c r="S8">
-        <v>0.4088983050847458</v>
+        <v>0.4007858546168959</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07317073170731707</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.04065040650406504</v>
+        <v>0.03676470588235294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06504065040650407</v>
+        <v>0.06617647058823529</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0975609756097561</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01626016260162602</v>
+        <v>0.02205882352941177</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1219512195121951</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R9">
-        <v>0.2032520325203252</v>
+        <v>0.1911764705882353</v>
       </c>
       <c r="S9">
-        <v>0.3821138211382114</v>
+        <v>0.3970588235294117</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1251101321585903</v>
+        <v>0.1237541528239203</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03259911894273128</v>
+        <v>0.03239202657807309</v>
       </c>
       <c r="E10">
-        <v>0.000881057268722467</v>
+        <v>0.0008305647840531562</v>
       </c>
       <c r="F10">
-        <v>0.06607929515418502</v>
+        <v>0.06810631229235881</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.118942731277533</v>
+        <v>0.117109634551495</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02378854625550661</v>
+        <v>0.02491694352159468</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1726872246696035</v>
+        <v>0.1794019933554817</v>
       </c>
       <c r="R10">
-        <v>0.1145374449339207</v>
+        <v>0.1096345514950166</v>
       </c>
       <c r="S10">
-        <v>0.345374449339207</v>
+        <v>0.3438538205980066</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1656626506024096</v>
+        <v>0.1596638655462185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08132530120481928</v>
+        <v>0.08683473389355742</v>
       </c>
       <c r="K11">
-        <v>0.2228915662650602</v>
+        <v>0.2212885154061625</v>
       </c>
       <c r="L11">
-        <v>0.5060240963855421</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02409638554216868</v>
+        <v>0.02240896358543417</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7544910179640718</v>
+        <v>0.7540983606557377</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2095808383233533</v>
+        <v>0.2021857923497268</v>
       </c>
       <c r="K12">
-        <v>0.01796407185628742</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="L12">
-        <v>0.005988023952095809</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01197604790419162</v>
+        <v>0.01639344262295082</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1794871794871795</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1282051282051282</v>
+        <v>0.119047619047619</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00966183574879227</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1980676328502415</v>
+        <v>0.2008733624454148</v>
       </c>
       <c r="I15">
-        <v>0.04347826086956522</v>
+        <v>0.03930131004366812</v>
       </c>
       <c r="J15">
-        <v>0.3333333333333333</v>
+        <v>0.3362445414847162</v>
       </c>
       <c r="K15">
-        <v>0.08695652173913043</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01932367149758454</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="N15">
-        <v>0.004830917874396135</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="O15">
-        <v>0.07246376811594203</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2318840579710145</v>
+        <v>0.2270742358078603</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03092783505154639</v>
+        <v>0.03381642512077294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2010309278350516</v>
+        <v>0.1980676328502415</v>
       </c>
       <c r="I16">
-        <v>0.05154639175257732</v>
+        <v>0.05314009661835749</v>
       </c>
       <c r="J16">
-        <v>0.3814432989690721</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K16">
-        <v>0.08247422680412371</v>
+        <v>0.0821256038647343</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02577319587628866</v>
+        <v>0.02415458937198068</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07731958762886598</v>
+        <v>0.07246376811594203</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1494845360824742</v>
+        <v>0.1449275362318841</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02493074792243767</v>
+        <v>0.02798982188295165</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2022160664819945</v>
+        <v>0.2010178117048346</v>
       </c>
       <c r="I17">
-        <v>0.0443213296398892</v>
+        <v>0.04834605597964377</v>
       </c>
       <c r="J17">
-        <v>0.4016620498614958</v>
+        <v>0.3969465648854962</v>
       </c>
       <c r="K17">
-        <v>0.1412742382271468</v>
+        <v>0.1374045801526718</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01662049861495845</v>
+        <v>0.02035623409669211</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05263157894736842</v>
+        <v>0.05089058524173028</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1163434903047091</v>
+        <v>0.1170483460559796</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02409638554216868</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1887550200803213</v>
+        <v>0.1877394636015326</v>
       </c>
       <c r="I18">
-        <v>0.0963855421686747</v>
+        <v>0.09578544061302682</v>
       </c>
       <c r="J18">
-        <v>0.429718875502008</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="K18">
-        <v>0.09236947791164658</v>
+        <v>0.08812260536398467</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008032128514056224</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="N18">
-        <v>0.004016064257028112</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="O18">
-        <v>0.05622489959839357</v>
+        <v>0.05363984674329502</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1004016064257028</v>
+        <v>0.09961685823754789</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02672413793103448</v>
+        <v>0.0322061191626409</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2353448275862069</v>
+        <v>0.2375201288244767</v>
       </c>
       <c r="I19">
-        <v>0.05517241379310345</v>
+        <v>0.0571658615136876</v>
       </c>
       <c r="J19">
-        <v>0.3379310344827586</v>
+        <v>0.3276972624798712</v>
       </c>
       <c r="K19">
-        <v>0.1172413793103448</v>
+        <v>0.1191626409017713</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02068965517241379</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06637931034482758</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1405172413793103</v>
+        <v>0.14170692431562</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Alcorn_B.xlsx
+++ b/team_specific_matrix/Alcorn_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1692307692307692</v>
+        <v>0.1807580174927114</v>
       </c>
       <c r="C2">
-        <v>0.5815384615384616</v>
+        <v>0.565597667638484</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02153846153846154</v>
+        <v>0.02332361516034985</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1353846153846154</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09230769230769231</v>
+        <v>0.08746355685131195</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005208333333333333</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="C3">
-        <v>0.01041666666666667</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02604166666666667</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7291666666666666</v>
+        <v>0.7309644670050761</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2291666666666667</v>
+        <v>0.2284263959390863</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03846153846153846</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7115384615384616</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.25</v>
+        <v>0.2545454545454545</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0743801652892562</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01239669421487603</v>
+        <v>0.01509433962264151</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06611570247933884</v>
+        <v>0.07169811320754717</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.231404958677686</v>
+        <v>0.2264150943396226</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.04132231404958678</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1611570247933884</v>
+        <v>0.1622641509433962</v>
       </c>
       <c r="R6">
-        <v>0.07851239669421488</v>
+        <v>0.07924528301886792</v>
       </c>
       <c r="S6">
-        <v>0.3347107438016529</v>
+        <v>0.3320754716981132</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1152073732718894</v>
+        <v>0.1179039301310044</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03225806451612903</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.152073732718894</v>
+        <v>0.1441048034934498</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04608294930875576</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.184331797235023</v>
+        <v>0.1877729257641921</v>
       </c>
       <c r="R7">
-        <v>0.08755760368663594</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="S7">
-        <v>0.3824884792626728</v>
+        <v>0.388646288209607</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09430255402750491</v>
+        <v>0.09140767824497258</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0137524557956778</v>
+        <v>0.01462522851919561</v>
       </c>
       <c r="E8">
-        <v>0.003929273084479371</v>
+        <v>0.005484460694698354</v>
       </c>
       <c r="F8">
-        <v>0.07269155206286837</v>
+        <v>0.08226691042047532</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1139489194499018</v>
+        <v>0.1078610603290676</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.009823182711198428</v>
+        <v>0.01279707495429616</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1611001964636542</v>
+        <v>0.1590493601462523</v>
       </c>
       <c r="R8">
-        <v>0.1296660117878193</v>
+        <v>0.129798903107861</v>
       </c>
       <c r="S8">
-        <v>0.4007858546168959</v>
+        <v>0.396709323583181</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06617647058823529</v>
+        <v>0.06756756756756757</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03676470588235294</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06617647058823529</v>
+        <v>0.06081081081081081</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1029411764705882</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02205882352941177</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1176470588235294</v>
+        <v>0.1216216216216216</v>
       </c>
       <c r="R9">
-        <v>0.1911764705882353</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="S9">
-        <v>0.3970588235294117</v>
+        <v>0.3986486486486486</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1237541528239203</v>
+        <v>0.1207576953433307</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03239202657807309</v>
+        <v>0.03157063930544594</v>
       </c>
       <c r="E10">
-        <v>0.0008305647840531562</v>
+        <v>0.0007892659826361484</v>
       </c>
       <c r="F10">
-        <v>0.06810631229235881</v>
+        <v>0.06866614048934491</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.117109634551495</v>
+        <v>0.11681136543015</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02491694352159468</v>
+        <v>0.0260457774269929</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1794019933554817</v>
+        <v>0.1838989739542226</v>
       </c>
       <c r="R10">
-        <v>0.1096345514950166</v>
+        <v>0.1112865035516969</v>
       </c>
       <c r="S10">
-        <v>0.3438538205980066</v>
+        <v>0.3401736385161799</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1596638655462185</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08683473389355742</v>
+        <v>0.08310991957104558</v>
       </c>
       <c r="K11">
-        <v>0.2212885154061625</v>
+        <v>0.2144772117962467</v>
       </c>
       <c r="L11">
-        <v>0.5098039215686274</v>
+        <v>0.5254691689008043</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02240896358543417</v>
+        <v>0.02144772117962467</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7540983606557377</v>
+        <v>0.751269035532995</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2021857923497268</v>
+        <v>0.2081218274111675</v>
       </c>
       <c r="K12">
-        <v>0.01639344262295082</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="L12">
-        <v>0.01092896174863388</v>
+        <v>0.01015228426395939</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01639344262295082</v>
+        <v>0.01522842639593909</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1666666666666667</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.119047619047619</v>
+        <v>0.1304347826086956</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.008733624454148471</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2008733624454148</v>
+        <v>0.1991869918699187</v>
       </c>
       <c r="I15">
-        <v>0.03930131004366812</v>
+        <v>0.04065040650406504</v>
       </c>
       <c r="J15">
-        <v>0.3362445414847162</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.08733624454148471</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01746724890829694</v>
+        <v>0.02032520325203252</v>
       </c>
       <c r="N15">
-        <v>0.004366812227074236</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="O15">
-        <v>0.07860262008733625</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2270742358078603</v>
+        <v>0.2276422764227642</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03381642512077294</v>
+        <v>0.03669724770642202</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1980676328502415</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="I16">
-        <v>0.05314009661835749</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="J16">
-        <v>0.391304347826087</v>
+        <v>0.3944954128440367</v>
       </c>
       <c r="K16">
-        <v>0.0821256038647343</v>
+        <v>0.08256880733944955</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02415458937198068</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07246376811594203</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1449275362318841</v>
+        <v>0.1513761467889908</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02798982188295165</v>
+        <v>0.02823529411764706</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2010178117048346</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="I17">
-        <v>0.04834605597964377</v>
+        <v>0.04941176470588235</v>
       </c>
       <c r="J17">
-        <v>0.3969465648854962</v>
+        <v>0.3905882352941176</v>
       </c>
       <c r="K17">
-        <v>0.1374045801526718</v>
+        <v>0.1294117647058824</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02035623409669211</v>
+        <v>0.02117647058823529</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05089058524173028</v>
+        <v>0.04941176470588235</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1170483460559796</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02298850574712644</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1877394636015326</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="I18">
-        <v>0.09578544061302682</v>
+        <v>0.09352517985611511</v>
       </c>
       <c r="J18">
-        <v>0.4367816091954023</v>
+        <v>0.4388489208633093</v>
       </c>
       <c r="K18">
-        <v>0.08812260536398467</v>
+        <v>0.08992805755395683</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01149425287356322</v>
+        <v>0.01079136690647482</v>
       </c>
       <c r="N18">
-        <v>0.003831417624521073</v>
+        <v>0.003597122302158274</v>
       </c>
       <c r="O18">
-        <v>0.05363984674329502</v>
+        <v>0.0539568345323741</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09961685823754789</v>
+        <v>0.1079136690647482</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0322061191626409</v>
+        <v>0.03255109765329296</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2375201288244767</v>
+        <v>0.2407267221801666</v>
       </c>
       <c r="I19">
-        <v>0.0571658615136876</v>
+        <v>0.05980317940953823</v>
       </c>
       <c r="J19">
-        <v>0.3276972624798712</v>
+        <v>0.3209689629068887</v>
       </c>
       <c r="K19">
-        <v>0.1191626409017713</v>
+        <v>0.1180923542770628</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01932367149758454</v>
+        <v>0.01968205904617714</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06521739130434782</v>
+        <v>0.06510219530658592</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.14170692431562</v>
+        <v>0.1430734292202877</v>
       </c>
     </row>
   </sheetData>
